--- a/First iteration/data/excel files/MM57.xlsx
+++ b/First iteration/data/excel files/MM57.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Filename</t>
   </si>
@@ -43,9 +43,6 @@
     <t>GaitWatch</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>MM57,   - 20-08-2014 MM57_01.txt</t>
   </si>
   <si>
@@ -77,6 +74,36 @@
   </si>
   <si>
     <t>GaitWatch_1626_200814_1530.mat</t>
+  </si>
+  <si>
+    <t>LTSD Parameters</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Threshols</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
   </si>
 </sst>
 </file>
@@ -563,10 +590,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,21 +953,21 @@
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -966,63 +993,97 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5694444444444445E-3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.5694444444444445E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
